--- a/data/pca/factorExposure/factorExposure_2017-12-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-08.xlsx
@@ -729,22 +729,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.007171922191857797</v>
+        <v>0.01251985620243278</v>
       </c>
       <c r="C2">
-        <v>0.005175404379281937</v>
+        <v>0.03916122342327591</v>
       </c>
       <c r="D2">
-        <v>-0.02947692259659066</v>
+        <v>-0.02889228116321227</v>
       </c>
       <c r="E2">
-        <v>0.03671781814218649</v>
+        <v>0.02765140688405126</v>
       </c>
       <c r="F2">
-        <v>-0.06310575269953805</v>
+        <v>0.03292224644572408</v>
       </c>
       <c r="G2">
-        <v>-0.01796905135741466</v>
+        <v>-0.01377447314985812</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -752,22 +752,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.07428017247762697</v>
+        <v>0.06439852518596147</v>
       </c>
       <c r="C3">
-        <v>-0.005258546581749035</v>
+        <v>0.07567655312703284</v>
       </c>
       <c r="D3">
-        <v>0.03792079096295533</v>
+        <v>-0.01371500257822338</v>
       </c>
       <c r="E3">
-        <v>0.0120306846456017</v>
+        <v>0.07749107800887603</v>
       </c>
       <c r="F3">
-        <v>-0.2420548880633232</v>
+        <v>0.07354980471781764</v>
       </c>
       <c r="G3">
-        <v>-0.08469931411429182</v>
+        <v>-0.06781007976572492</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -775,22 +775,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03391665669897419</v>
+        <v>0.05770734570930806</v>
       </c>
       <c r="C4">
-        <v>0.02411796008774886</v>
+        <v>0.06032686846867898</v>
       </c>
       <c r="D4">
-        <v>-0.03532735583667755</v>
+        <v>-0.0219094057854596</v>
       </c>
       <c r="E4">
-        <v>-0.008303589945112285</v>
+        <v>-0.0004615620017505458</v>
       </c>
       <c r="F4">
-        <v>-0.0365341861303289</v>
+        <v>0.01991979839897704</v>
       </c>
       <c r="G4">
-        <v>0.02216611453320426</v>
+        <v>-0.03833107881382814</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -821,22 +821,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0568707558897851</v>
+        <v>0.03330767448653007</v>
       </c>
       <c r="C6">
-        <v>0.01820919727522737</v>
+        <v>0.05573633851637629</v>
       </c>
       <c r="D6">
-        <v>-0.05212959242552379</v>
+        <v>-0.01608063497642465</v>
       </c>
       <c r="E6">
-        <v>-0.03281761536436269</v>
+        <v>0.003361346593753167</v>
       </c>
       <c r="F6">
-        <v>-0.02994357752677309</v>
+        <v>0.01679077148387246</v>
       </c>
       <c r="G6">
-        <v>0.05051298197364278</v>
+        <v>-0.02143810388247303</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -844,22 +844,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02546731109876002</v>
+        <v>0.01833506835505577</v>
       </c>
       <c r="C7">
-        <v>0.06774410153488453</v>
+        <v>0.03812248389026571</v>
       </c>
       <c r="D7">
-        <v>0.01295800071228426</v>
+        <v>-0.01258854526944404</v>
       </c>
       <c r="E7">
-        <v>-0.01218227866470514</v>
+        <v>-0.01649696139177006</v>
       </c>
       <c r="F7">
-        <v>-0.009841942084468291</v>
+        <v>0.009607412895845397</v>
       </c>
       <c r="G7">
-        <v>-0.01506499722995541</v>
+        <v>-0.07340399152590127</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -867,22 +867,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01654205613156447</v>
+        <v>-0.005285644125102754</v>
       </c>
       <c r="C8">
-        <v>0.01229271523171139</v>
+        <v>0.01340939714895681</v>
       </c>
       <c r="D8">
-        <v>-0.01647369595755705</v>
+        <v>-0.003834110459520924</v>
       </c>
       <c r="E8">
-        <v>0.005591759775899883</v>
+        <v>0.01224350157005743</v>
       </c>
       <c r="F8">
-        <v>-0.02218062580903803</v>
+        <v>0.02329425074010604</v>
       </c>
       <c r="G8">
-        <v>-0.01692541816659063</v>
+        <v>-0.02445815910065494</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -890,22 +890,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02988173440763148</v>
+        <v>0.02881257559969582</v>
       </c>
       <c r="C9">
-        <v>0.01663006139597396</v>
+        <v>0.04112684061059384</v>
       </c>
       <c r="D9">
-        <v>-0.02536259805242187</v>
+        <v>-0.01518852689897156</v>
       </c>
       <c r="E9">
-        <v>-0.001023685585986176</v>
+        <v>0.0002483090321822151</v>
       </c>
       <c r="F9">
-        <v>-0.05559656455622539</v>
+        <v>0.01918960692513957</v>
       </c>
       <c r="G9">
-        <v>0.01985773938406231</v>
+        <v>-0.02970059044842618</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -913,22 +913,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.09414276889507577</v>
+        <v>0.07977291390833931</v>
       </c>
       <c r="C10">
-        <v>-0.04215114162457147</v>
+        <v>-0.1870343185473701</v>
       </c>
       <c r="D10">
-        <v>0.1450472018867328</v>
+        <v>0.01934949183234625</v>
       </c>
       <c r="E10">
-        <v>0.05932137272099079</v>
+        <v>0.01715163842007211</v>
       </c>
       <c r="F10">
-        <v>-0.02865536745972091</v>
+        <v>-0.01194269292126463</v>
       </c>
       <c r="G10">
-        <v>-0.004853451550571136</v>
+        <v>-0.03532354621668041</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -936,22 +936,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.02462266563912105</v>
+        <v>0.03671740468041876</v>
       </c>
       <c r="C11">
-        <v>0.006895442053770817</v>
+        <v>0.05224445346940682</v>
       </c>
       <c r="D11">
-        <v>-0.04674112721741726</v>
+        <v>-0.0009206263109535757</v>
       </c>
       <c r="E11">
-        <v>0.0007777717322664467</v>
+        <v>-0.006118690025690226</v>
       </c>
       <c r="F11">
-        <v>-0.01635083784321141</v>
+        <v>0.02688345069567163</v>
       </c>
       <c r="G11">
-        <v>0.0202254762141614</v>
+        <v>-0.009880360291808905</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -959,22 +959,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03122104984246942</v>
+        <v>0.03534014767102989</v>
       </c>
       <c r="C12">
-        <v>0.01222618636915121</v>
+        <v>0.04379289616500046</v>
       </c>
       <c r="D12">
-        <v>-0.04105110335088558</v>
+        <v>-0.005202281017611244</v>
       </c>
       <c r="E12">
-        <v>-0.01441914957664489</v>
+        <v>-0.01123653748137815</v>
       </c>
       <c r="F12">
-        <v>0.00882763350010749</v>
+        <v>0.007677594762806458</v>
       </c>
       <c r="G12">
-        <v>0.0007769873801845804</v>
+        <v>-0.01537299272217729</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -982,22 +982,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01920705102901067</v>
+        <v>0.01242187060621079</v>
       </c>
       <c r="C13">
-        <v>-0.001138314848884474</v>
+        <v>0.03246598165422072</v>
       </c>
       <c r="D13">
-        <v>-0.01863647567492845</v>
+        <v>-0.02450997811518896</v>
       </c>
       <c r="E13">
-        <v>-0.03316411466930017</v>
+        <v>0.01817291499823358</v>
       </c>
       <c r="F13">
-        <v>-0.0440368020485343</v>
+        <v>0.03037519318810238</v>
       </c>
       <c r="G13">
-        <v>0.006583133556052869</v>
+        <v>-0.02513845488171241</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1005,22 +1005,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01405419958134096</v>
+        <v>0.007461133670886788</v>
       </c>
       <c r="C14">
-        <v>0.01632504594867825</v>
+        <v>0.02485770809338812</v>
       </c>
       <c r="D14">
-        <v>-0.006553519439838345</v>
+        <v>-0.008339015195342366</v>
       </c>
       <c r="E14">
-        <v>0.004720513945426512</v>
+        <v>-0.008312939672860739</v>
       </c>
       <c r="F14">
-        <v>-0.01294363512884401</v>
+        <v>0.001486773596769743</v>
       </c>
       <c r="G14">
-        <v>-0.02492486847073079</v>
+        <v>-0.0326431483224878</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1051,22 +1051,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.02328438256354157</v>
+        <v>0.03218120064307458</v>
       </c>
       <c r="C16">
-        <v>0.01222779456377614</v>
+        <v>0.04195137939331653</v>
       </c>
       <c r="D16">
-        <v>-0.0418829669309592</v>
+        <v>-0.0006461075026033955</v>
       </c>
       <c r="E16">
-        <v>-0.001873638756288964</v>
+        <v>-0.004709057128451304</v>
       </c>
       <c r="F16">
-        <v>-0.01758661526713735</v>
+        <v>0.01460325499061139</v>
       </c>
       <c r="G16">
-        <v>0.0250083713397686</v>
+        <v>-0.01464440230697815</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1120,22 +1120,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0224547177235114</v>
+        <v>0.02826768213798946</v>
       </c>
       <c r="C19">
-        <v>0.01098532473298811</v>
+        <v>0.05452620518995538</v>
       </c>
       <c r="D19">
-        <v>-0.03732239323624346</v>
+        <v>-0.01490147474671423</v>
       </c>
       <c r="E19">
-        <v>0.005978667144697513</v>
+        <v>0.0313312186609655</v>
       </c>
       <c r="F19">
-        <v>-0.05052706842778515</v>
+        <v>0.041522284137373</v>
       </c>
       <c r="G19">
-        <v>0.03129830819687655</v>
+        <v>-0.03320994201824111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1143,22 +1143,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.006578234676562038</v>
+        <v>0.01112469335066622</v>
       </c>
       <c r="C20">
-        <v>0.002269901548848447</v>
+        <v>0.03467378931889557</v>
       </c>
       <c r="D20">
-        <v>0.0009843601588836828</v>
+        <v>-0.01303167974987744</v>
       </c>
       <c r="E20">
-        <v>-0.003346595998075384</v>
+        <v>0.0179404641548261</v>
       </c>
       <c r="F20">
-        <v>-0.03032597557153297</v>
+        <v>0.01043450447142593</v>
       </c>
       <c r="G20">
-        <v>-0.01210984209947939</v>
+        <v>-0.02553053886566845</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1166,22 +1166,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.03776645865523331</v>
+        <v>0.0121641832958153</v>
       </c>
       <c r="C21">
-        <v>0.02797875150164839</v>
+        <v>0.03368245772140774</v>
       </c>
       <c r="D21">
-        <v>-0.0169623745807723</v>
+        <v>-0.01580263962232589</v>
       </c>
       <c r="E21">
-        <v>0.002145109738572004</v>
+        <v>0.02305035066743466</v>
       </c>
       <c r="F21">
-        <v>-0.02418281196074093</v>
+        <v>0.02130696431868107</v>
       </c>
       <c r="G21">
-        <v>0.01294746606587725</v>
+        <v>-0.04840075978057169</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1235,22 +1235,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02166845696481715</v>
+        <v>0.02667005766185387</v>
       </c>
       <c r="C24">
-        <v>0.009007346215036471</v>
+        <v>0.04540563626462416</v>
       </c>
       <c r="D24">
-        <v>-0.03635308804442533</v>
+        <v>-0.005867278152173775</v>
       </c>
       <c r="E24">
-        <v>-0.001439298569603203</v>
+        <v>-0.01002935889397955</v>
       </c>
       <c r="F24">
-        <v>-0.01523710314683129</v>
+        <v>0.02303469507089963</v>
       </c>
       <c r="G24">
-        <v>0.02381358792077988</v>
+        <v>-0.0130780499464894</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1258,22 +1258,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0370614414053823</v>
+        <v>0.04537366508011959</v>
       </c>
       <c r="C25">
-        <v>0.005907763443097579</v>
+        <v>0.05078473221326462</v>
       </c>
       <c r="D25">
-        <v>-0.03776333758039895</v>
+        <v>-0.009775387409203624</v>
       </c>
       <c r="E25">
-        <v>-0.01426954750539923</v>
+        <v>-0.01544081561347143</v>
       </c>
       <c r="F25">
-        <v>-0.03033522220951401</v>
+        <v>0.01907520625451256</v>
       </c>
       <c r="G25">
-        <v>0.02165199579344161</v>
+        <v>-0.01893021675488401</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1281,22 +1281,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.00324046175701334</v>
+        <v>0.003192890128143626</v>
       </c>
       <c r="C26">
-        <v>0.006237802400650018</v>
+        <v>0.009217033460987232</v>
       </c>
       <c r="D26">
-        <v>0.004601804747601434</v>
+        <v>-0.02398474953110449</v>
       </c>
       <c r="E26">
-        <v>-0.01738598122986446</v>
+        <v>0.003273516600174011</v>
       </c>
       <c r="F26">
-        <v>-0.02820115667981113</v>
+        <v>0.008618656396847998</v>
       </c>
       <c r="G26">
-        <v>-0.03143973225645164</v>
+        <v>-0.02353681081557745</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1327,22 +1327,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.142586203535452</v>
+        <v>0.1029249277965141</v>
       </c>
       <c r="C28">
-        <v>-0.06552517960234386</v>
+        <v>-0.2278971236249209</v>
       </c>
       <c r="D28">
-        <v>0.2167863560293215</v>
+        <v>0.01076305662137264</v>
       </c>
       <c r="E28">
-        <v>0.04084255503826412</v>
+        <v>0.007944271361313544</v>
       </c>
       <c r="F28">
-        <v>-0.01158950899274041</v>
+        <v>-0.007624299388390219</v>
       </c>
       <c r="G28">
-        <v>-0.01537350305227074</v>
+        <v>-0.05077639304140925</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1350,22 +1350,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01483867440570302</v>
+        <v>0.01249272175689425</v>
       </c>
       <c r="C29">
-        <v>0.01156078913188862</v>
+        <v>0.01820605372556806</v>
       </c>
       <c r="D29">
-        <v>-0.004731881351124097</v>
+        <v>-0.006962448495445167</v>
       </c>
       <c r="E29">
-        <v>-0.0009229287567373132</v>
+        <v>-0.006316143695000487</v>
       </c>
       <c r="F29">
-        <v>-0.01425465267434872</v>
+        <v>-0.004506207070288588</v>
       </c>
       <c r="G29">
-        <v>-0.01954150758282344</v>
+        <v>-0.02673006869425817</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1373,22 +1373,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0413213210369049</v>
+        <v>0.03973031994154752</v>
       </c>
       <c r="C30">
-        <v>-0.03469664973945988</v>
+        <v>0.07175667204162103</v>
       </c>
       <c r="D30">
-        <v>-0.08246449961158546</v>
+        <v>-0.02683139634240628</v>
       </c>
       <c r="E30">
-        <v>0.002067401423798408</v>
+        <v>0.0161574490044518</v>
       </c>
       <c r="F30">
-        <v>-0.06263602421338878</v>
+        <v>0.04363793742231038</v>
       </c>
       <c r="G30">
-        <v>0.003519333964323559</v>
+        <v>0.01062484048432185</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1396,22 +1396,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04538748850036593</v>
+        <v>0.04501957857216207</v>
       </c>
       <c r="C31">
-        <v>0.02097296987018517</v>
+        <v>0.02714404530915192</v>
       </c>
       <c r="D31">
-        <v>-0.02331243822792967</v>
+        <v>-0.002432705593584912</v>
       </c>
       <c r="E31">
-        <v>0.02803412691039799</v>
+        <v>-0.01691826452046224</v>
       </c>
       <c r="F31">
-        <v>0.00246335975460014</v>
+        <v>-0.0272365313031173</v>
       </c>
       <c r="G31">
-        <v>-0.02054815621278332</v>
+        <v>-0.02351680010122056</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1419,22 +1419,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00211830845732039</v>
+        <v>0.005646876023542342</v>
       </c>
       <c r="C32">
-        <v>0.03040253481283921</v>
+        <v>0.03544460324207154</v>
       </c>
       <c r="D32">
-        <v>-0.01693483343130804</v>
+        <v>0.004756138776611624</v>
       </c>
       <c r="E32">
-        <v>-0.007242735983280119</v>
+        <v>0.01467870485807653</v>
       </c>
       <c r="F32">
-        <v>-0.03276629060664078</v>
+        <v>0.07509603219308289</v>
       </c>
       <c r="G32">
-        <v>0.05127490334213291</v>
+        <v>-0.05453407140315365</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1442,22 +1442,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03254984191792346</v>
+        <v>0.03033816837212609</v>
       </c>
       <c r="C33">
-        <v>-0.01011035330718573</v>
+        <v>0.05062200942156629</v>
       </c>
       <c r="D33">
-        <v>-0.04259206662248782</v>
+        <v>-0.01378500905745372</v>
       </c>
       <c r="E33">
-        <v>0.009310553123916173</v>
+        <v>0.01526423642434946</v>
       </c>
       <c r="F33">
-        <v>-0.04106935581386831</v>
+        <v>0.02550177612370557</v>
       </c>
       <c r="G33">
-        <v>-0.02241333861726531</v>
+        <v>-0.01703044549676477</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1465,22 +1465,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.02648630358565889</v>
+        <v>0.04730975206230861</v>
       </c>
       <c r="C34">
-        <v>0.02106184580622724</v>
+        <v>0.05162760580128156</v>
       </c>
       <c r="D34">
-        <v>-0.04131226260269018</v>
+        <v>0.006375202107498905</v>
       </c>
       <c r="E34">
-        <v>0.0047812879810343</v>
+        <v>-0.01522380367958845</v>
       </c>
       <c r="F34">
-        <v>-0.01648548266752393</v>
+        <v>0.02414414869222198</v>
       </c>
       <c r="G34">
-        <v>0.01959556512542702</v>
+        <v>-0.02375778603820538</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1511,22 +1511,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01622217016229952</v>
+        <v>0.009752553551368136</v>
       </c>
       <c r="C36">
-        <v>0.004548953661579654</v>
+        <v>0.004718456970482854</v>
       </c>
       <c r="D36">
-        <v>-0.00156423838140841</v>
+        <v>-0.01111154214719775</v>
       </c>
       <c r="E36">
-        <v>0.003233941765410316</v>
+        <v>-0.002772463836497142</v>
       </c>
       <c r="F36">
-        <v>-0.01459517235836276</v>
+        <v>0.0008986959937344722</v>
       </c>
       <c r="G36">
-        <v>-0.002515680870784326</v>
+        <v>-0.01568486431136731</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1557,22 +1557,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02326447195823413</v>
+        <v>0.03223919297009283</v>
       </c>
       <c r="C38">
-        <v>0.007427421911046886</v>
+        <v>0.02208840785532622</v>
       </c>
       <c r="D38">
-        <v>-0.02213353389265467</v>
+        <v>0.008473882276142456</v>
       </c>
       <c r="E38">
-        <v>0.03659386261519686</v>
+        <v>-0.003480080298855951</v>
       </c>
       <c r="F38">
-        <v>-0.04287492303573547</v>
+        <v>0.008011781158865017</v>
       </c>
       <c r="G38">
-        <v>-0.00892548959723829</v>
+        <v>-0.02308006386230992</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1580,22 +1580,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01472938834858055</v>
+        <v>0.03270882044128597</v>
       </c>
       <c r="C39">
-        <v>0.02136319564530765</v>
+        <v>0.08243882576334662</v>
       </c>
       <c r="D39">
-        <v>-0.06513432975747471</v>
+        <v>-0.01140214323320206</v>
       </c>
       <c r="E39">
-        <v>-0.01351057860484774</v>
+        <v>0.006068982725037021</v>
       </c>
       <c r="F39">
-        <v>-0.04801092145025893</v>
+        <v>0.04079934174617367</v>
       </c>
       <c r="G39">
-        <v>0.03902411130426695</v>
+        <v>-0.01558240585516751</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1603,22 +1603,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.02639287142536417</v>
+        <v>0.01994710206471104</v>
       </c>
       <c r="C40">
-        <v>0.005602599488171526</v>
+        <v>0.03104976797436865</v>
       </c>
       <c r="D40">
-        <v>-0.04198856558591389</v>
+        <v>-0.01282380387564585</v>
       </c>
       <c r="E40">
-        <v>-0.01529009575110931</v>
+        <v>0.01194753646428173</v>
       </c>
       <c r="F40">
-        <v>-0.03614646042003249</v>
+        <v>0.02535869937863929</v>
       </c>
       <c r="G40">
-        <v>0.02644202559071691</v>
+        <v>-0.01685608169939633</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1626,22 +1626,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01303718262564207</v>
+        <v>0.01072497354714546</v>
       </c>
       <c r="C41">
-        <v>-0.0004557579257490155</v>
+        <v>-0.002919013871398465</v>
       </c>
       <c r="D41">
-        <v>0.007985970402614666</v>
+        <v>-0.003249893933726465</v>
       </c>
       <c r="E41">
-        <v>0.01820477632191074</v>
+        <v>-0.007855976240126267</v>
       </c>
       <c r="F41">
-        <v>-0.00526389863316845</v>
+        <v>0.001846057204414559</v>
       </c>
       <c r="G41">
-        <v>-0.009267022735458463</v>
+        <v>-0.01048482044851736</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1649,22 +1649,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.1362451413511502</v>
+        <v>0.04080418067543844</v>
       </c>
       <c r="C42">
-        <v>-0.0802487143558636</v>
+        <v>0.05439011332787246</v>
       </c>
       <c r="D42">
-        <v>-0.1593776328373906</v>
+        <v>-0.1034124760926232</v>
       </c>
       <c r="E42">
-        <v>-0.09521121075971735</v>
+        <v>0.0804884239910912</v>
       </c>
       <c r="F42">
-        <v>-0.2169544515306017</v>
+        <v>-0.1221296955779821</v>
       </c>
       <c r="G42">
-        <v>-0.1724360901321956</v>
+        <v>0.2210472859253288</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1672,22 +1672,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01850622558423815</v>
+        <v>0.02672292444522379</v>
       </c>
       <c r="C43">
-        <v>-0.003459155903084404</v>
+        <v>0.005646275841044014</v>
       </c>
       <c r="D43">
-        <v>0.005039525448126498</v>
+        <v>-0.003225107441182545</v>
       </c>
       <c r="E43">
-        <v>0.0009987564878093133</v>
+        <v>-0.004751573065412664</v>
       </c>
       <c r="F43">
-        <v>-0.008099085296525472</v>
+        <v>0.003438627680764516</v>
       </c>
       <c r="G43">
-        <v>-0.0213582646393257</v>
+        <v>-0.01308409548829602</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1695,22 +1695,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.007349150944770655</v>
+        <v>0.01746402493524522</v>
       </c>
       <c r="C44">
-        <v>0.01518225704930572</v>
+        <v>0.04846574655020742</v>
       </c>
       <c r="D44">
-        <v>-0.01667940731957357</v>
+        <v>-0.006658669929562701</v>
       </c>
       <c r="E44">
-        <v>0.00444386614632066</v>
+        <v>0.01764270013537667</v>
       </c>
       <c r="F44">
-        <v>-0.07579230092656172</v>
+        <v>0.02562348937613439</v>
       </c>
       <c r="G44">
-        <v>0.005840923636943632</v>
+        <v>-0.03091639471228213</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1741,22 +1741,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007268697635083548</v>
+        <v>0.0008499388326606058</v>
       </c>
       <c r="C46">
-        <v>0.008928451425997172</v>
+        <v>0.01566561055474739</v>
       </c>
       <c r="D46">
-        <v>-0.02348941695303251</v>
+        <v>-0.01152317430544593</v>
       </c>
       <c r="E46">
-        <v>0.00388556220015778</v>
+        <v>-0.007573498453778531</v>
       </c>
       <c r="F46">
-        <v>-0.03430873651728365</v>
+        <v>-0.007441358584344462</v>
       </c>
       <c r="G46">
-        <v>-0.02624213701658251</v>
+        <v>-0.01998671195545961</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1764,22 +1764,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0701277709037524</v>
+        <v>0.07556120402798149</v>
       </c>
       <c r="C47">
-        <v>0.009807752467607234</v>
+        <v>0.05864113539347306</v>
       </c>
       <c r="D47">
-        <v>-0.03930751891241156</v>
+        <v>0.0055754779455089</v>
       </c>
       <c r="E47">
-        <v>0.01690305532498678</v>
+        <v>-0.01919943449658371</v>
       </c>
       <c r="F47">
-        <v>0.03311256224612942</v>
+        <v>-0.05930457039357624</v>
       </c>
       <c r="G47">
-        <v>-0.04198599771530175</v>
+        <v>-0.01423095009945437</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1787,22 +1787,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02592950298127194</v>
+        <v>0.01529322963424489</v>
       </c>
       <c r="C48">
-        <v>0.005897429407555537</v>
+        <v>0.01004245532994335</v>
       </c>
       <c r="D48">
-        <v>-0.006847026066367973</v>
+        <v>-0.0008670447453892037</v>
       </c>
       <c r="E48">
-        <v>0.002711439900058076</v>
+        <v>-0.008302021087627514</v>
       </c>
       <c r="F48">
-        <v>-0.01484872102086207</v>
+        <v>-0.0119676066773731</v>
       </c>
       <c r="G48">
-        <v>-0.003177638319624372</v>
+        <v>-0.0176922652536664</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1833,22 +1833,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.06923173041964573</v>
+        <v>0.07850674181184841</v>
       </c>
       <c r="C50">
-        <v>0.04361693599138269</v>
+        <v>0.0601136453985602</v>
       </c>
       <c r="D50">
-        <v>-0.05069278615790263</v>
+        <v>0.004305176078228814</v>
       </c>
       <c r="E50">
-        <v>0.02880300202934645</v>
+        <v>-0.02045233264074144</v>
       </c>
       <c r="F50">
-        <v>0.01266074229243963</v>
+        <v>-0.05691348704921919</v>
       </c>
       <c r="G50">
-        <v>-0.07057339959388274</v>
+        <v>-0.03823944010028132</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1856,22 +1856,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01620332777347197</v>
+        <v>0.01712960985374979</v>
       </c>
       <c r="C51">
-        <v>0.004979605594796234</v>
+        <v>0.02809961686205621</v>
       </c>
       <c r="D51">
-        <v>0.01794263286725082</v>
+        <v>-0.00875614926866598</v>
       </c>
       <c r="E51">
-        <v>0.001431173811132943</v>
+        <v>0.007881896118237634</v>
       </c>
       <c r="F51">
-        <v>-0.05777036758870144</v>
+        <v>0.03606236699065719</v>
       </c>
       <c r="G51">
-        <v>0.001848536645043565</v>
+        <v>-0.03846839380392823</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1902,22 +1902,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08904796160607441</v>
+        <v>0.100277839786331</v>
       </c>
       <c r="C53">
-        <v>0.03064242429256795</v>
+        <v>0.07154856416104392</v>
       </c>
       <c r="D53">
-        <v>-0.0650673491254861</v>
+        <v>0.006615857073987635</v>
       </c>
       <c r="E53">
-        <v>0.000540038271020959</v>
+        <v>-0.04121138057977653</v>
       </c>
       <c r="F53">
-        <v>0.06024532153289158</v>
+        <v>-0.06570716134122534</v>
       </c>
       <c r="G53">
-        <v>-0.02204294921171986</v>
+        <v>-0.01699158266310323</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1925,22 +1925,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02595719789098945</v>
+        <v>0.02806031366393897</v>
       </c>
       <c r="C54">
-        <v>0.01165549286915982</v>
+        <v>0.003571463711300362</v>
       </c>
       <c r="D54">
-        <v>-0.005017302824372662</v>
+        <v>0.004495344059308475</v>
       </c>
       <c r="E54">
-        <v>0.01937067376307265</v>
+        <v>-0.0008533328947258135</v>
       </c>
       <c r="F54">
-        <v>0.0002246870735393352</v>
+        <v>-0.003415347738123465</v>
       </c>
       <c r="G54">
-        <v>-0.00337220524325974</v>
+        <v>-0.02606471521416817</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1948,22 +1948,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.06482999330506892</v>
+        <v>0.07602412549284165</v>
       </c>
       <c r="C55">
-        <v>0.02416433539340273</v>
+        <v>0.06556256990574216</v>
       </c>
       <c r="D55">
-        <v>-0.07544343529486125</v>
+        <v>0.005519446552723985</v>
       </c>
       <c r="E55">
-        <v>0.01757720278150275</v>
+        <v>-0.03082821749911976</v>
       </c>
       <c r="F55">
-        <v>0.04005653548496923</v>
+        <v>-0.0599329271455409</v>
       </c>
       <c r="G55">
-        <v>-0.04366951693096784</v>
+        <v>-0.005412723210779814</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1971,22 +1971,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1294319946513947</v>
+        <v>0.1518870746213524</v>
       </c>
       <c r="C56">
-        <v>0.02711480280157811</v>
+        <v>0.0924494335270349</v>
       </c>
       <c r="D56">
-        <v>-0.09100319309897759</v>
+        <v>0.0155502356240484</v>
       </c>
       <c r="E56">
-        <v>-0.0106516876814386</v>
+        <v>-0.04393390046092562</v>
       </c>
       <c r="F56">
-        <v>0.08742184791182614</v>
+        <v>-0.1021591824523714</v>
       </c>
       <c r="G56">
-        <v>-0.02544357598037969</v>
+        <v>0.004897085704133324</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1994,22 +1994,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.03152227410643322</v>
+        <v>0.01402172316494692</v>
       </c>
       <c r="C57">
-        <v>0.001923360206509855</v>
+        <v>0.01157010721707491</v>
       </c>
       <c r="D57">
-        <v>-0.03151221568052325</v>
+        <v>-0.02379133904236611</v>
       </c>
       <c r="E57">
-        <v>-0.003323287693245156</v>
+        <v>0.03054375372510019</v>
       </c>
       <c r="F57">
-        <v>-0.04272197609509081</v>
+        <v>0.01556000262267502</v>
       </c>
       <c r="G57">
-        <v>0.006121597230770186</v>
+        <v>-0.02247761087486656</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2017,22 +2017,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1495943276919945</v>
+        <v>0.06985320660861392</v>
       </c>
       <c r="C58">
-        <v>-0.09912508337123159</v>
+        <v>0.0719217616108639</v>
       </c>
       <c r="D58">
-        <v>-0.1611886508569016</v>
+        <v>-0.01971073074482877</v>
       </c>
       <c r="E58">
-        <v>0.03065350133838197</v>
+        <v>0.9428382808151912</v>
       </c>
       <c r="F58">
-        <v>-0.5441638948789614</v>
+        <v>-0.2377673439077191</v>
       </c>
       <c r="G58">
-        <v>-0.5952708061260935</v>
+        <v>-0.07076187697346635</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2040,22 +2040,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1467193482338563</v>
+        <v>0.1430619566257926</v>
       </c>
       <c r="C59">
-        <v>-0.08685256184363707</v>
+        <v>-0.2194670037462227</v>
       </c>
       <c r="D59">
-        <v>0.1893965145338185</v>
+        <v>0.01811713217533134</v>
       </c>
       <c r="E59">
-        <v>-0.00142607079887281</v>
+        <v>0.0164659652865628</v>
       </c>
       <c r="F59">
-        <v>-0.04491346006202307</v>
+        <v>0.01564432316658656</v>
       </c>
       <c r="G59">
-        <v>0.03331598999559158</v>
+        <v>-0.01792317021775875</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2063,22 +2063,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2057889531617427</v>
+        <v>0.2952879010385668</v>
       </c>
       <c r="C60">
-        <v>-0.03694607923157646</v>
+        <v>0.07519912480526116</v>
       </c>
       <c r="D60">
-        <v>-0.05058307853036855</v>
+        <v>-0.006133249333562073</v>
       </c>
       <c r="E60">
-        <v>-0.09619265546815964</v>
+        <v>0.03178591928640795</v>
       </c>
       <c r="F60">
-        <v>-0.1834728418452138</v>
+        <v>0.3954577248384616</v>
       </c>
       <c r="G60">
-        <v>0.3860523814149585</v>
+        <v>0.04285681135001223</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2086,22 +2086,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.02997073023562729</v>
+        <v>0.03302156949420624</v>
       </c>
       <c r="C61">
-        <v>0.01366868659414509</v>
+        <v>0.06285170657795174</v>
       </c>
       <c r="D61">
-        <v>-0.05675635511232515</v>
+        <v>-0.004735971951439888</v>
       </c>
       <c r="E61">
-        <v>-0.006498878637870189</v>
+        <v>0.002097947775144899</v>
       </c>
       <c r="F61">
-        <v>-0.03021137313492528</v>
+        <v>0.02743698095913863</v>
       </c>
       <c r="G61">
-        <v>0.04491527033991281</v>
+        <v>-0.01671330987823473</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2132,22 +2132,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0152311612539273</v>
+        <v>0.01344874648125676</v>
       </c>
       <c r="C63">
-        <v>0.01058794040348462</v>
+        <v>0.02729568748888547</v>
       </c>
       <c r="D63">
-        <v>-0.02057749814011055</v>
+        <v>-0.007534097191832955</v>
       </c>
       <c r="E63">
-        <v>-0.001661453082906153</v>
+        <v>-0.01859352575031635</v>
       </c>
       <c r="F63">
-        <v>-0.001466160600485211</v>
+        <v>-0.005152802092469384</v>
       </c>
       <c r="G63">
-        <v>-0.02301524213191308</v>
+        <v>-0.02145312420475002</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2155,22 +2155,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04699220928219498</v>
+        <v>0.04675479369508825</v>
       </c>
       <c r="C64">
-        <v>0.01105253193892203</v>
+        <v>0.03414982447820544</v>
       </c>
       <c r="D64">
-        <v>-0.04180645660831596</v>
+        <v>-0.00427271207409268</v>
       </c>
       <c r="E64">
-        <v>-0.01149401849509195</v>
+        <v>-0.01439414660009932</v>
       </c>
       <c r="F64">
-        <v>-0.01674736592240912</v>
+        <v>0.01518488132359631</v>
       </c>
       <c r="G64">
-        <v>0.003147680944655339</v>
+        <v>-0.01387561565471717</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2178,22 +2178,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.06501356665194348</v>
+        <v>0.08042624923890586</v>
       </c>
       <c r="C65">
-        <v>0.0183452917146431</v>
+        <v>0.06510846241201965</v>
       </c>
       <c r="D65">
-        <v>-0.05583586187595004</v>
+        <v>-0.0146828195819134</v>
       </c>
       <c r="E65">
-        <v>-0.03548860003943534</v>
+        <v>-0.0006330622379481432</v>
       </c>
       <c r="F65">
-        <v>-0.02644157630673073</v>
+        <v>0.03962776413149748</v>
       </c>
       <c r="G65">
-        <v>0.05729200477965366</v>
+        <v>-0.009755691643283255</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2201,22 +2201,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.03597880558090188</v>
+        <v>0.05464999000245795</v>
       </c>
       <c r="C66">
-        <v>0.007850166840704401</v>
+        <v>0.1161722416302787</v>
       </c>
       <c r="D66">
-        <v>-0.09034709324290169</v>
+        <v>-0.01055734251583856</v>
       </c>
       <c r="E66">
-        <v>-0.01729780357286923</v>
+        <v>0.007467585673850194</v>
       </c>
       <c r="F66">
-        <v>-0.02799559713595572</v>
+        <v>0.04708875336977075</v>
       </c>
       <c r="G66">
-        <v>0.05092280449188511</v>
+        <v>-0.004633113580388652</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2224,22 +2224,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04050682829426647</v>
+        <v>0.05754928658993876</v>
       </c>
       <c r="C67">
-        <v>0.004842700736080827</v>
+        <v>0.02385926013200376</v>
       </c>
       <c r="D67">
-        <v>-0.02298685857972084</v>
+        <v>0.007343323848091839</v>
       </c>
       <c r="E67">
-        <v>0.03455164358388605</v>
+        <v>-0.009902100997736491</v>
       </c>
       <c r="F67">
-        <v>-0.0250779194250396</v>
+        <v>0.007585847692983629</v>
       </c>
       <c r="G67">
-        <v>0.000117197992597314</v>
+        <v>-0.02312925328798294</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2247,22 +2247,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1283114564756564</v>
+        <v>0.1138262920680499</v>
       </c>
       <c r="C68">
-        <v>-0.08221110309838747</v>
+        <v>-0.2714206917448492</v>
       </c>
       <c r="D68">
-        <v>0.2024111474099641</v>
+        <v>-0.0002978871105634426</v>
       </c>
       <c r="E68">
-        <v>0.02448222081267601</v>
+        <v>0.01294649419556773</v>
       </c>
       <c r="F68">
-        <v>-0.01050485485958401</v>
+        <v>-0.01691532934517226</v>
       </c>
       <c r="G68">
-        <v>0.005086096593194656</v>
+        <v>-0.01744837948318172</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2270,22 +2270,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.05339866413156829</v>
+        <v>0.07777313740496389</v>
       </c>
       <c r="C69">
-        <v>0.01475334989532294</v>
+        <v>0.05646888740257174</v>
       </c>
       <c r="D69">
-        <v>-0.04519576393790455</v>
+        <v>0.01000006379375542</v>
       </c>
       <c r="E69">
-        <v>0.02904762689473018</v>
+        <v>-0.03586764647819963</v>
       </c>
       <c r="F69">
-        <v>0.02384707049969543</v>
+        <v>-0.03657648085471634</v>
       </c>
       <c r="G69">
-        <v>-0.01908341146211932</v>
+        <v>-0.01199913920475901</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2316,22 +2316,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1172097322009889</v>
+        <v>0.1149509146692378</v>
       </c>
       <c r="C71">
-        <v>-0.06094664174493618</v>
+        <v>-0.2291497342272913</v>
       </c>
       <c r="D71">
-        <v>0.1912508095037242</v>
+        <v>0.0084790056641279</v>
       </c>
       <c r="E71">
-        <v>0.05683435556206457</v>
+        <v>0.02051597687774817</v>
       </c>
       <c r="F71">
-        <v>-0.02507769730828777</v>
+        <v>-0.02380820992055389</v>
       </c>
       <c r="G71">
-        <v>-0.03785665232079182</v>
+        <v>-0.03206248132591914</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2339,22 +2339,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1186258593275531</v>
+        <v>0.08377926663946032</v>
       </c>
       <c r="C72">
-        <v>0.02847680694723244</v>
+        <v>0.07900240343943379</v>
       </c>
       <c r="D72">
-        <v>-0.1530253021456676</v>
+        <v>0.009438749147662817</v>
       </c>
       <c r="E72">
-        <v>0.08191184269961205</v>
+        <v>-0.01900160143112079</v>
       </c>
       <c r="F72">
-        <v>-0.1314539277160069</v>
+        <v>0.03816646395086386</v>
       </c>
       <c r="G72">
-        <v>0.1811852622310458</v>
+        <v>0.006564791350098108</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2362,22 +2362,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2514147746162795</v>
+        <v>0.4029276434723329</v>
       </c>
       <c r="C73">
-        <v>-0.08296575631520181</v>
+        <v>0.09124008756219389</v>
       </c>
       <c r="D73">
-        <v>-0.1059645629601942</v>
+        <v>-0.01014344428908521</v>
       </c>
       <c r="E73">
-        <v>-0.08264766199939357</v>
+        <v>0.08326891073645812</v>
       </c>
       <c r="F73">
-        <v>-0.2611827021287513</v>
+        <v>0.5286861822792546</v>
       </c>
       <c r="G73">
-        <v>0.3834737031045261</v>
+        <v>0.09305078868841991</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2385,22 +2385,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1181162454139627</v>
+        <v>0.1205198910821926</v>
       </c>
       <c r="C74">
-        <v>0.02318864335098884</v>
+        <v>0.1114876518428332</v>
       </c>
       <c r="D74">
-        <v>-0.1028908660246327</v>
+        <v>0.01125083233264614</v>
       </c>
       <c r="E74">
-        <v>0.03010356053887979</v>
+        <v>-0.03974310390212714</v>
       </c>
       <c r="F74">
-        <v>0.07542673814948488</v>
+        <v>-0.07247884775164841</v>
       </c>
       <c r="G74">
-        <v>-0.01331578239045053</v>
+        <v>-0.008844312620973146</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2408,22 +2408,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2376393113976107</v>
+        <v>0.2691884746100998</v>
       </c>
       <c r="C75">
-        <v>0.02453132170105018</v>
+        <v>0.1319466862806279</v>
       </c>
       <c r="D75">
-        <v>-0.1514254097378795</v>
+        <v>0.0329078039347865</v>
       </c>
       <c r="E75">
-        <v>-0.0154784741448613</v>
+        <v>-0.06614341854991293</v>
       </c>
       <c r="F75">
-        <v>0.1596083141709042</v>
+        <v>-0.2206978273006586</v>
       </c>
       <c r="G75">
-        <v>-0.02207681573014798</v>
+        <v>0.03817502877240427</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2431,22 +2431,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.2223317752557788</v>
+        <v>0.1492809064824573</v>
       </c>
       <c r="C76">
-        <v>0.05147648855851056</v>
+        <v>0.1133561484449638</v>
       </c>
       <c r="D76">
-        <v>-0.1601184499600683</v>
+        <v>0.02376948204285845</v>
       </c>
       <c r="E76">
-        <v>0.0204962624472857</v>
+        <v>-0.07062434019891578</v>
       </c>
       <c r="F76">
-        <v>0.2283593325952419</v>
+        <v>-0.1405346240957127</v>
       </c>
       <c r="G76">
-        <v>-0.02404309360248593</v>
+        <v>0.00214331915617973</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2454,22 +2454,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.03734124046136775</v>
+        <v>0.05531547439434913</v>
       </c>
       <c r="C77">
-        <v>0.01036430437488426</v>
+        <v>0.06109604629883954</v>
       </c>
       <c r="D77">
-        <v>-0.05167885659906957</v>
+        <v>-0.01206600427360546</v>
       </c>
       <c r="E77">
-        <v>-0.03226752197885756</v>
+        <v>0.02911523895600638</v>
       </c>
       <c r="F77">
-        <v>-0.06223577838253681</v>
+        <v>0.007918900128445983</v>
       </c>
       <c r="G77">
-        <v>-0.1450514061744308</v>
+        <v>-0.03741120160020713</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2477,22 +2477,22 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.02611710953511216</v>
+        <v>0.04395090804485438</v>
       </c>
       <c r="C78">
-        <v>0.01543724169483234</v>
+        <v>0.05186717193110661</v>
       </c>
       <c r="D78">
-        <v>-0.04375739727136239</v>
+        <v>-0.004872469865113662</v>
       </c>
       <c r="E78">
-        <v>-0.01319744977998233</v>
+        <v>0.01433732666308634</v>
       </c>
       <c r="F78">
-        <v>-0.05540860430454683</v>
+        <v>0.04481665830301852</v>
       </c>
       <c r="G78">
-        <v>0.02899484251010177</v>
+        <v>-0.02734592554599025</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2523,22 +2523,22 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.1952721575357343</v>
+        <v>0.06611030222936179</v>
       </c>
       <c r="C80">
-        <v>0.9085600086103158</v>
+        <v>0.07677880425813573</v>
       </c>
       <c r="D80">
-        <v>0.2808719101008408</v>
+        <v>-0.0129573540073417</v>
       </c>
       <c r="E80">
-        <v>-0.07802108483508192</v>
+        <v>-0.07841879256224717</v>
       </c>
       <c r="F80">
-        <v>-0.125554194725567</v>
+        <v>-0.01724640507267034</v>
       </c>
       <c r="G80">
-        <v>-0.03752362736697775</v>
+        <v>-0.9245583680984998</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2546,22 +2546,22 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1790488562714642</v>
+        <v>0.1539898777806639</v>
       </c>
       <c r="C81">
-        <v>0.03424006036418945</v>
+        <v>0.08470640535920368</v>
       </c>
       <c r="D81">
-        <v>-0.116740949679334</v>
+        <v>0.01829028145342118</v>
       </c>
       <c r="E81">
-        <v>0.0198390635590654</v>
+        <v>-0.04713904986126478</v>
       </c>
       <c r="F81">
-        <v>0.1224777937265567</v>
+        <v>-0.1398391121902062</v>
       </c>
       <c r="G81">
-        <v>-0.04761643244705519</v>
+        <v>-0.002705292075232687</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2569,22 +2569,22 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.04287059184677242</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03051689307109925</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002281943366694711</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.0195333116175943</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.002638222054608574</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.003737625310629844</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2592,22 +2592,22 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03578966445755732</v>
+        <v>0.02964826589318451</v>
       </c>
       <c r="C83">
-        <v>-0.001109511658152492</v>
+        <v>0.01829027922889185</v>
       </c>
       <c r="D83">
-        <v>-0.01267458963202089</v>
+        <v>-0.004905967268270436</v>
       </c>
       <c r="E83">
-        <v>0.00516330434436525</v>
+        <v>0.02434974166466341</v>
       </c>
       <c r="F83">
-        <v>-0.04612487350759711</v>
+        <v>0.02440464019320478</v>
       </c>
       <c r="G83">
-        <v>-0.001951390827502925</v>
+        <v>-0.02700252571525744</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2638,22 +2638,22 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2241116914378758</v>
+        <v>0.2500889731907095</v>
       </c>
       <c r="C85">
-        <v>0.02314558933306109</v>
+        <v>0.138838632865791</v>
       </c>
       <c r="D85">
-        <v>-0.1872077835565042</v>
+        <v>0.02181605598024043</v>
       </c>
       <c r="E85">
-        <v>-0.02432622112418274</v>
+        <v>-0.1075506652150734</v>
       </c>
       <c r="F85">
-        <v>0.1715307589235649</v>
+        <v>-0.2095368394810884</v>
       </c>
       <c r="G85">
-        <v>-0.03889035264692092</v>
+        <v>0.06627543971913281</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2661,22 +2661,22 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01383552239531051</v>
+        <v>0.009816994568912297</v>
       </c>
       <c r="C86">
-        <v>0.01548104606633808</v>
+        <v>0.02302439168144223</v>
       </c>
       <c r="D86">
-        <v>-0.02608337849395887</v>
+        <v>-0.009691031648514092</v>
       </c>
       <c r="E86">
-        <v>0.0440500578443668</v>
+        <v>0.01632203843215057</v>
       </c>
       <c r="F86">
-        <v>-0.06181747274872485</v>
+        <v>0.02312047548062661</v>
       </c>
       <c r="G86">
-        <v>-0.01171969531187855</v>
+        <v>-0.04993631143728421</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2684,22 +2684,22 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02564844534500299</v>
+        <v>0.01741568630255548</v>
       </c>
       <c r="C87">
-        <v>0.01171839161347663</v>
+        <v>0.02622257810528246</v>
       </c>
       <c r="D87">
-        <v>-0.03102635275038865</v>
+        <v>-0.01118430489365653</v>
       </c>
       <c r="E87">
-        <v>0.0007971261228869742</v>
+        <v>0.07594790534946667</v>
       </c>
       <c r="F87">
-        <v>-0.1031826327208382</v>
+        <v>0.06170490778591114</v>
       </c>
       <c r="G87">
-        <v>0.02339256442970808</v>
+        <v>-0.04115192516153906</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2707,22 +2707,22 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05266044955634503</v>
+        <v>0.08795288997034038</v>
       </c>
       <c r="C88">
-        <v>-0.005717163441777278</v>
+        <v>0.04848499103112069</v>
       </c>
       <c r="D88">
-        <v>-0.00915918672992024</v>
+        <v>-0.0203093135752041</v>
       </c>
       <c r="E88">
-        <v>0.02068159576077609</v>
+        <v>-0.01648608355937097</v>
       </c>
       <c r="F88">
-        <v>0.001795861972836553</v>
+        <v>0.003703645894483556</v>
       </c>
       <c r="G88">
-        <v>0.007508167992042657</v>
+        <v>-0.01944210991974812</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2730,22 +2730,22 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2344328936325103</v>
+        <v>0.2061269196202606</v>
       </c>
       <c r="C89">
-        <v>-0.1567556691963926</v>
+        <v>-0.3841800130146693</v>
       </c>
       <c r="D89">
-        <v>0.3459609933353723</v>
+        <v>0.0114244028450994</v>
       </c>
       <c r="E89">
-        <v>0.03075276232540919</v>
+        <v>-0.01158529333378654</v>
       </c>
       <c r="F89">
-        <v>0.005112267465572842</v>
+        <v>-0.02102798660570665</v>
       </c>
       <c r="G89">
-        <v>-0.008233547641263991</v>
+        <v>-0.02915032227682156</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2753,22 +2753,22 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1438426669501313</v>
+        <v>0.1680621650288308</v>
       </c>
       <c r="C90">
-        <v>-0.1317218611848757</v>
+        <v>-0.3439895209263464</v>
       </c>
       <c r="D90">
-        <v>0.2821904935401335</v>
+        <v>0.01315330768448323</v>
       </c>
       <c r="E90">
-        <v>0.01642110920995161</v>
+        <v>0.005626419541831834</v>
       </c>
       <c r="F90">
-        <v>0.04936662494697007</v>
+        <v>-0.03711073853896928</v>
       </c>
       <c r="G90">
-        <v>-0.04151234324819986</v>
+        <v>-0.003824202990560897</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2776,22 +2776,22 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2479069361533085</v>
+        <v>0.2215575870865612</v>
       </c>
       <c r="C91">
-        <v>0.02680154878162303</v>
+        <v>0.125880288748918</v>
       </c>
       <c r="D91">
-        <v>-0.1855920209753402</v>
+        <v>0.0271094672041824</v>
       </c>
       <c r="E91">
-        <v>-0.01958426849726442</v>
+        <v>-0.08845256382848243</v>
       </c>
       <c r="F91">
-        <v>0.2361757359894394</v>
+        <v>-0.1907672618326895</v>
       </c>
       <c r="G91">
-        <v>-0.04567238248723018</v>
+        <v>0.02398081825377394</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2799,22 +2799,22 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2967326892184177</v>
+        <v>0.203774471563487</v>
       </c>
       <c r="C92">
-        <v>-0.1158897057362862</v>
+        <v>-0.2804030020746255</v>
       </c>
       <c r="D92">
-        <v>0.2477560871710756</v>
+        <v>0.05720236531460614</v>
       </c>
       <c r="E92">
-        <v>0.1222110854080216</v>
+        <v>-0.00326878629383198</v>
       </c>
       <c r="F92">
-        <v>0.1459476014431743</v>
+        <v>-0.1379591490194863</v>
       </c>
       <c r="G92">
-        <v>-0.1604719103558177</v>
+        <v>-0.05521010718449663</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2822,22 +2822,22 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2106785578867006</v>
+        <v>0.1952157927686562</v>
       </c>
       <c r="C93">
-        <v>-0.16719768079863</v>
+        <v>-0.3420166079276208</v>
       </c>
       <c r="D93">
-        <v>0.3287147761009056</v>
+        <v>0.02043293008652889</v>
       </c>
       <c r="E93">
-        <v>0.04280611223294879</v>
+        <v>0.01622128835881303</v>
       </c>
       <c r="F93">
-        <v>0.003846591207924584</v>
+        <v>-0.009985685845072785</v>
       </c>
       <c r="G93">
-        <v>0.02100831770950012</v>
+        <v>0.001571420956003511</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2845,22 +2845,22 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2999539519229718</v>
+        <v>0.291408328560646</v>
       </c>
       <c r="C94">
-        <v>-0.01527093529190733</v>
+        <v>0.1363932036760506</v>
       </c>
       <c r="D94">
-        <v>-0.1726606255839141</v>
+        <v>0.0159730142081307</v>
       </c>
       <c r="E94">
-        <v>-0.06660540596507566</v>
+        <v>-0.1014205964327475</v>
       </c>
       <c r="F94">
-        <v>0.2583126421315406</v>
+        <v>-0.3705640571623287</v>
       </c>
       <c r="G94">
-        <v>-0.1242320029741484</v>
+        <v>0.1261862759644408</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2868,22 +2868,22 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08386064666769824</v>
+        <v>0.07315534637796353</v>
       </c>
       <c r="C95">
-        <v>-0.05794252534740545</v>
+        <v>0.0768633316911469</v>
       </c>
       <c r="D95">
-        <v>-0.07690390099951372</v>
+        <v>0.007041734793685104</v>
       </c>
       <c r="E95">
-        <v>0.1202720810825087</v>
+        <v>0.07762249841640437</v>
       </c>
       <c r="F95">
-        <v>-0.008402434162800235</v>
+        <v>0.1393266529624572</v>
       </c>
       <c r="G95">
-        <v>0.03660216679278949</v>
+        <v>0.05709516371622416</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2937,22 +2937,22 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2116745935165422</v>
+        <v>0.2145016871661353</v>
       </c>
       <c r="C98">
-        <v>-0.05686868674058298</v>
+        <v>0.03744713375109915</v>
       </c>
       <c r="D98">
-        <v>-0.03891410226983211</v>
+        <v>0.01974048577756108</v>
       </c>
       <c r="E98">
-        <v>-0.04109792256641795</v>
+        <v>0.0759096629112148</v>
       </c>
       <c r="F98">
-        <v>-0.2712485255532847</v>
+        <v>0.2572716229449486</v>
       </c>
       <c r="G98">
-        <v>0.3549162051897952</v>
+        <v>0.02607260491138238</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3006,22 +3006,22 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02808003357567341</v>
+        <v>0.01403233958043935</v>
       </c>
       <c r="C101">
-        <v>0.004376900198092582</v>
+        <v>0.01934665418533447</v>
       </c>
       <c r="D101">
-        <v>-0.01806289357766673</v>
+        <v>-0.008121496572021032</v>
       </c>
       <c r="E101">
-        <v>0.0008257888686424878</v>
+        <v>0.03184380005000717</v>
       </c>
       <c r="F101">
-        <v>-0.112259546661811</v>
+        <v>-0.02392012246650611</v>
       </c>
       <c r="G101">
-        <v>-0.1701513266081063</v>
+        <v>-0.03374672736588104</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3029,22 +3029,22 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.131078814152214</v>
+        <v>0.1291089341353474</v>
       </c>
       <c r="C102">
-        <v>0.01055944112317624</v>
+        <v>0.07410519215752473</v>
       </c>
       <c r="D102">
-        <v>-0.08015206132461875</v>
+        <v>0.001346493529604276</v>
       </c>
       <c r="E102">
-        <v>-0.03163862485098464</v>
+        <v>-0.04709791458031744</v>
       </c>
       <c r="F102">
-        <v>0.1070514422840804</v>
+        <v>-0.0640455049543594</v>
       </c>
       <c r="G102">
-        <v>-0.04755190176701644</v>
+        <v>0.01914614408662427</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3052,22 +3052,22 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.03166149580799601</v>
+        <v>0.006557442761904308</v>
       </c>
       <c r="C103">
-        <v>0.01902111492726902</v>
+        <v>0.005673749446498919</v>
       </c>
       <c r="D103">
-        <v>-0.02245926083615879</v>
+        <v>-0.0001684420950453632</v>
       </c>
       <c r="E103">
-        <v>-0.007511780707239497</v>
+        <v>-0.003065244905793453</v>
       </c>
       <c r="F103">
-        <v>0.01660198756402441</v>
+        <v>-0.01104469352659</v>
       </c>
       <c r="G103">
-        <v>-0.005362977865312428</v>
+        <v>-0.01321454269253005</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3075,22 +3075,22 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>0.001395867264909427</v>
+        <v>0.04500820905320629</v>
       </c>
       <c r="C104">
-        <v>-0.100979220303595</v>
+        <v>-0.04948749155551802</v>
       </c>
       <c r="D104">
-        <v>0.09853299910319936</v>
+        <v>-0.9854897853401912</v>
       </c>
       <c r="E104">
-        <v>-0.9446754833263106</v>
+        <v>-0.04405146499220983</v>
       </c>
       <c r="F104">
-        <v>0.0463837609991875</v>
+        <v>-0.03689226395520467</v>
       </c>
       <c r="G104">
-        <v>-0.08974522768033687</v>
+        <v>0.001328938754075035</v>
       </c>
     </row>
   </sheetData>
